--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD1_Companies_150514.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD1_Companies_150514.xlsx
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
